--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uppsalauniversitet-my.sharepoint.com/personal/wafaa_elbaghdady_5184_student_uu_se/Documents/Prolog Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="10_ncr:100000_{C058A7EE-4014-4957-8423-6DB6DD5DFA9C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{4DE53F52-5FE7-4A6B-93C6-612726138535}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="10_ncr:100000_{C058A7EE-4014-4957-8423-6DB6DD5DFA9C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{02BFD2FA-AA0A-4A1C-AE4E-16A789C94C0A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3CBE8FB8-AD76-4FB5-81CD-A5C71A47BE78}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Task</t>
   </si>
@@ -260,8 +260,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CD4B8EB-64C0-456A-ACCF-10A98C1F7974}" name="Table2" displayName="Table2" ref="B3:G22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="B3:G22" xr:uid="{395AAEBB-3C62-4438-BF33-68ED9E53125B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CD4B8EB-64C0-456A-ACCF-10A98C1F7974}" name="Table2" displayName="Table2" ref="B3:G23" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="B3:G23" xr:uid="{395AAEBB-3C62-4438-BF33-68ED9E53125B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{942DE78A-9E40-4D50-8253-E391E5887D5F}" name="Task" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{46634DDA-BECD-4160-B6EA-0C4FD6FD4898}" name="Assigned to " dataDxfId="7"/>
@@ -275,8 +275,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FBCBF74D-1892-437B-8EDE-2661C5E9914A}" name="Table3" displayName="Table3" ref="B25:C28" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B25:C28" xr:uid="{413346FD-D3F6-4647-AEA6-51BF3E6614B4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FBCBF74D-1892-437B-8EDE-2661C5E9914A}" name="Table3" displayName="Table3" ref="B26:C29" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B26:C29" xr:uid="{413346FD-D3F6-4647-AEA6-51BF3E6614B4}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{438A66AD-9AD6-43F8-98FC-884525220DA5}" name="Group Members" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{3DD7F82F-5D4A-457D-95D6-5D9EC95059E8}" name="Initials" dataDxfId="0"/>
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A75662-622C-4F42-A85C-63D5E3D6D3C0}">
-  <dimension ref="B3:G28"/>
+  <dimension ref="B3:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0" xr3:uid="{D2239451-D349-55A6-9682-5ACE29B3FCA9}">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -761,7 +761,7 @@
         <v>43362</v>
       </c>
       <c r="F11" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -779,7 +779,7 @@
         <v>43362</v>
       </c>
       <c r="F12" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -857,105 +857,105 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" ht="30">
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4">
         <v>43368</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43368</v>
+      </c>
+      <c r="E18" s="4">
         <v>43369</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" ht="30">
-      <c r="B18" s="2" t="s">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" ht="30">
+      <c r="B19" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4">
-        <v>43367</v>
-      </c>
-      <c r="E18" s="5">
-        <v>43368</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="4">
-        <v>43370</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>8</v>
+        <v>43367</v>
+      </c>
+      <c r="E19" s="5">
+        <v>43368</v>
       </c>
       <c r="F19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D20" s="4">
         <v>43370</v>
       </c>
-      <c r="E20" s="4">
-        <v>43370</v>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="F20" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" ht="45">
+    <row r="21" spans="2:7">
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D21" s="4">
         <v>43370</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>8</v>
+      <c r="E21" s="4">
+        <v>43370</v>
       </c>
       <c r="F21" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" ht="45">
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="4">
-        <v>43371</v>
+        <v>43370</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>8</v>
@@ -965,35 +965,53 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>35</v>
-      </c>
+    <row r="23" spans="2:7">
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43371</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
     </row>
